--- a/biology/Botanique/Liane_aurore/Liane_aurore.xlsx
+++ b/biology/Botanique/Liane_aurore/Liane_aurore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pyrostegia venusta
 La liane aurore (Pyrostegia venusta), aussi appelée liane de feu, est une liane de la famille des Bignoniaceae originaire du Brésil, à floraison spectaculaire, cultivée dans les jardins des régions tropicales.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pyrostegia du grec pyros, feu et stegia, bâtiment couvert; en rapport avec la couleur des fleurs et la forme de la lèvre supérieure. Lorsque les fleurs couvrent le toit, on a l’impression qu'il est en feu. Venusta signifie ravissant en latin.
 </t>
@@ -543,11 +557,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La liane de Saint Jean est une plante grimpante volubile très vigoureuse qui s'accroche avec des vrilles.
-La tige est ligneuse, les feuilles composées persistantes, sont par paires opposées, de 4 à 8 cm de long, avec 2 ou 3 folioles ovales à oblongues lancéolées, vert intense. Les fleurs tubulaires de 3 à 6cm de long sont très ouvertes, incurvées, cireuses, groupées en bouquets terminaux. Elles s'épanouissent à profusion avec leur couleur rouge orangé à orange doré. La floraison se produit de la fin d'automne au début du printemps; son nom de liane de Saint Jean est lié au solstice d'hiver marqué par la saint Jean d'hiver, le 21 décembre. Sensible au froid, à -2°C, elle perd toutes ses parties aériennes[2].
-Une illustration remarquable figure dans la "Revue horticole" de 1039[3]
+La tige est ligneuse, les feuilles composées persistantes, sont par paires opposées, de 4 à 8 cm de long, avec 2 ou 3 folioles ovales à oblongues lancéolées, vert intense. Les fleurs tubulaires de 3 à 6cm de long sont très ouvertes, incurvées, cireuses, groupées en bouquets terminaux. Elles s'épanouissent à profusion avec leur couleur rouge orangé à orange doré. La floraison se produit de la fin d'automne au début du printemps; son nom de liane de Saint Jean est lié au solstice d'hiver marqué par la saint Jean d'hiver, le 21 décembre. Sensible au froid, à -2°C, elle perd toutes ses parties aériennes.
+Une illustration remarquable figure dans la "Revue horticole" de 1039
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bignonia ignea Vell.
 Bignonia tecomiflora Rusby
